--- a/山西新能源数据校验/导出/华润验收清单模版.xlsx
+++ b/山西新能源数据校验/导出/华润验收清单模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="私有数据（1月）" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="403">
   <si>
     <t>山西新能源电力交易支持系统委托开发实施服务项目私有数据验收测试单2024年1月</t>
   </si>
@@ -1163,13 +1163,25 @@
     <t>不方便用脚本写，可以直接看系统</t>
   </si>
   <si>
+    <t>日前+日内，日前和日内都缺失才算缺失</t>
+  </si>
+  <si>
+    <t>导入文件中数据项缺失数据日期的并集。即只要某个数据项缺失，该日期就是缺失</t>
+  </si>
+  <si>
     <t>判断日期范围有没有越限断面就行</t>
   </si>
   <si>
     <t>只有日前</t>
   </si>
   <si>
-    <t>挑几个</t>
+    <t>该日所有通道都缺失才算缺失</t>
+  </si>
+  <si>
+    <t>取数据中心上传状态</t>
+  </si>
+  <si>
+    <t>必开必停都缺失才算缺失</t>
   </si>
   <si>
     <t>省间-山西送上海-日前</t>
@@ -14293,12 +14305,12 @@
   <sheetPr/>
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -14387,7 +14399,9 @@
       <c r="B8" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="9" customFormat="1" spans="1:3">
       <c r="A9" s="4" t="s">
@@ -14650,14 +14664,16 @@
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" customFormat="1" spans="1:3">
+    <row r="38" customFormat="1" ht="22.8" spans="1:3">
       <c r="A38" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="39" customFormat="1" spans="1:3">
       <c r="A39" s="4" t="s">
@@ -15116,7 +15132,9 @@
       <c r="B89" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="90" customFormat="1" spans="1:3">
       <c r="A90" s="4" t="s">
@@ -15126,7 +15144,7 @@
         <v>312</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:3">
@@ -15146,7 +15164,7 @@
         <v>120</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>313</v>
@@ -15179,7 +15197,9 @@
       <c r="B95" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="5"/>
+      <c r="C95" s="5" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="96" customFormat="1" spans="1:3">
       <c r="A96" s="4" t="s">
@@ -15188,7 +15208,9 @@
       <c r="B96" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C96" s="5"/>
+      <c r="C96" s="5" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="97" customFormat="1" spans="1:3">
       <c r="A97" s="4" t="s">
@@ -15197,7 +15219,9 @@
       <c r="B97" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C97" s="5"/>
+      <c r="C97" s="5" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="98" customFormat="1" spans="1:3">
       <c r="A98" s="4" t="s">
@@ -15207,7 +15231,7 @@
         <v>183</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" customFormat="1" spans="1:3">
@@ -15235,7 +15259,9 @@
       <c r="B101" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C101" s="5"/>
+      <c r="C101" s="5" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="102" customFormat="1" spans="1:3">
       <c r="A102" s="4" t="s">
@@ -15244,7 +15270,9 @@
       <c r="B102" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C102" s="5"/>
+      <c r="C102" s="5" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="103" customFormat="1" spans="1:3">
       <c r="A103" s="4" t="s">
@@ -15253,7 +15281,9 @@
       <c r="B103" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C103" s="5"/>
+      <c r="C103" s="5" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="104" customFormat="1" spans="1:3">
       <c r="A104" s="4" t="s">
@@ -15769,7 +15799,7 @@
   <sheetPr/>
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -15971,7 +16001,7 @@
         <v>269</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:3">
@@ -15982,7 +16012,7 @@
         <v>271</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:3">
@@ -15993,7 +16023,7 @@
         <v>273</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16004,7 +16034,7 @@
         <v>275</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:3">
@@ -16015,7 +16045,7 @@
         <v>277</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
@@ -16026,7 +16056,7 @@
         <v>279</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16037,7 +16067,7 @@
         <v>281</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16048,7 +16078,7 @@
         <v>283</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16059,7 +16089,7 @@
         <v>285</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16070,7 +16100,7 @@
         <v>286</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16081,7 +16111,7 @@
         <v>288</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16092,7 +16122,7 @@
         <v>289</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:3">
@@ -16103,7 +16133,7 @@
         <v>291</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16114,7 +16144,7 @@
         <v>293</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:3">
@@ -16125,7 +16155,7 @@
         <v>294</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:3">
@@ -16136,7 +16166,7 @@
         <v>296</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16147,7 +16177,7 @@
         <v>298</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16158,7 +16188,7 @@
         <v>300</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:3">
@@ -16169,7 +16199,7 @@
         <v>301</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:3">
@@ -16180,7 +16210,7 @@
         <v>303</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:3">
@@ -16191,7 +16221,7 @@
         <v>305</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:3">
@@ -16499,7 +16529,7 @@
         <v>311</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:3">

--- a/山西新能源数据校验/导出/华润验收清单模版.xlsx
+++ b/山西新能源数据校验/导出/华润验收清单模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="私有数据（1月）" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="405">
   <si>
     <t>山西新能源电力交易支持系统委托开发实施服务项目私有数据验收测试单2024年1月</t>
   </si>
@@ -1088,6 +1088,9 @@
     <t>联络线-京津唐送雁淮(过境)日前</t>
   </si>
   <si>
+    <t>联络线-总加实时</t>
+  </si>
+  <si>
     <t>联络线-河北负荷实时</t>
   </si>
   <si>
@@ -1163,7 +1166,7 @@
     <t>不方便用脚本写，可以直接看系统</t>
   </si>
   <si>
-    <t>日前+日内，日前和日内都缺失才算缺失</t>
+    <t>日前和日内任意一个缺失就算缺失</t>
   </si>
   <si>
     <t>导入文件中数据项缺失数据日期的并集。即只要某个数据项缺失，该日期就是缺失</t>
@@ -1178,12 +1181,18 @@
     <t>该日所有通道都缺失才算缺失</t>
   </si>
   <si>
+    <t>任意一个缺失就算缺失</t>
+  </si>
+  <si>
+    <t>查询固定的几台机组。若其中一台有数据，则算有数据</t>
+  </si>
+  <si>
+    <t>必开必停都缺失才算缺失</t>
+  </si>
+  <si>
     <t>取数据中心上传状态</t>
   </si>
   <si>
-    <t>必开必停都缺失才算缺失</t>
-  </si>
-  <si>
     <t>省间-山西送上海-日前</t>
   </si>
   <si>
@@ -1245,9 +1254,6 @@
   </si>
   <si>
     <t>省间-山西送吉林-日内</t>
-  </si>
-  <si>
-    <t>联络线-总加实时</t>
   </si>
 </sst>
 </file>
@@ -12408,12 +12414,12 @@
   <sheetPr/>
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -13058,7 +13064,7 @@
         <v>169</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>168</v>
+        <v>349</v>
       </c>
       <c r="F39" s="19"/>
     </row>
@@ -13186,7 +13192,7 @@
         <v>169</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F47" s="19"/>
     </row>
@@ -13202,7 +13208,7 @@
         <v>169</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F48" s="19"/>
     </row>
@@ -13218,7 +13224,7 @@
         <v>169</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F49" s="19"/>
     </row>
@@ -13234,7 +13240,7 @@
         <v>169</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F50" s="19"/>
     </row>
@@ -13250,7 +13256,7 @@
         <v>169</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F51" s="19"/>
     </row>
@@ -13266,7 +13272,7 @@
         <v>169</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F52" s="19"/>
     </row>
@@ -13282,7 +13288,7 @@
         <v>169</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F53" s="19"/>
     </row>
@@ -13298,7 +13304,7 @@
         <v>169</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F54" s="19"/>
     </row>
@@ -13314,7 +13320,7 @@
         <v>169</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F55" s="19"/>
     </row>
@@ -13330,7 +13336,7 @@
         <v>169</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F56" s="19"/>
     </row>
@@ -13346,7 +13352,7 @@
         <v>169</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F57" s="19"/>
     </row>
@@ -13362,7 +13368,7 @@
         <v>169</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F58" s="19"/>
     </row>
@@ -13378,7 +13384,7 @@
         <v>169</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F59" s="19"/>
     </row>
@@ -13394,7 +13400,7 @@
         <v>169</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F60" s="19"/>
     </row>
@@ -13410,7 +13416,7 @@
         <v>169</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F61" s="19"/>
     </row>
@@ -13426,7 +13432,7 @@
         <v>169</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F62" s="19"/>
     </row>
@@ -13442,7 +13448,7 @@
         <v>169</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F63" s="19"/>
     </row>
@@ -13458,7 +13464,7 @@
         <v>169</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F64" s="19"/>
     </row>
@@ -13474,7 +13480,7 @@
         <v>169</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F65" s="19"/>
     </row>
@@ -13490,7 +13496,7 @@
         <v>169</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F66" s="19"/>
     </row>
@@ -13506,7 +13512,7 @@
         <v>169</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F67" s="19"/>
     </row>
@@ -13522,7 +13528,7 @@
         <v>169</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F68" s="19"/>
     </row>
@@ -13638,7 +13644,7 @@
         <v>226</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F75" s="19"/>
     </row>
@@ -13670,7 +13676,7 @@
         <v>226</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F77" s="19"/>
     </row>
@@ -14305,12 +14311,12 @@
   <sheetPr/>
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -14362,7 +14368,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:3">
@@ -14400,7 +14406,7 @@
         <v>262</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:3">
@@ -14672,7 +14678,7 @@
         <v>306</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:3">
@@ -15133,7 +15139,7 @@
         <v>130</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:3">
@@ -15144,7 +15150,7 @@
         <v>312</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:3">
@@ -15164,7 +15170,7 @@
         <v>120</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>313</v>
@@ -15198,7 +15204,7 @@
         <v>136</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="1:3">
@@ -15209,7 +15215,7 @@
         <v>316</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:3">
@@ -15220,7 +15226,7 @@
         <v>317</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:3">
@@ -15231,7 +15237,7 @@
         <v>183</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" customFormat="1" spans="1:3">
@@ -15260,7 +15266,7 @@
         <v>319</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" customFormat="1" spans="1:3">
@@ -15271,7 +15277,7 @@
         <v>320</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="1:3">
@@ -15282,7 +15288,7 @@
         <v>321</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:3">
@@ -15293,7 +15299,7 @@
         <v>322</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:3">
@@ -15800,11 +15806,11 @@
   <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -15979,7 +15985,7 @@
         <v>267</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:3">
@@ -15990,7 +15996,7 @@
         <v>268</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:3">
@@ -16001,7 +16007,7 @@
         <v>269</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:3">
@@ -16012,7 +16018,7 @@
         <v>271</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:3">
@@ -16023,7 +16029,7 @@
         <v>273</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16034,7 +16040,7 @@
         <v>275</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:3">
@@ -16045,7 +16051,7 @@
         <v>277</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
@@ -16056,7 +16062,7 @@
         <v>279</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16067,7 +16073,7 @@
         <v>281</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16078,7 +16084,7 @@
         <v>283</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16089,7 +16095,7 @@
         <v>285</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16100,7 +16106,7 @@
         <v>286</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16111,7 +16117,7 @@
         <v>288</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16122,7 +16128,7 @@
         <v>289</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:3">
@@ -16133,7 +16139,7 @@
         <v>291</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16144,7 +16150,7 @@
         <v>293</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:3">
@@ -16155,7 +16161,7 @@
         <v>294</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:3">
@@ -16166,7 +16172,7 @@
         <v>296</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16177,7 +16183,7 @@
         <v>298</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="19" customHeight="1" spans="1:3">
@@ -16188,7 +16194,7 @@
         <v>300</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:3">
@@ -16199,7 +16205,7 @@
         <v>301</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:3">
@@ -16210,7 +16216,7 @@
         <v>303</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:3">
@@ -16221,7 +16227,7 @@
         <v>305</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:3">
@@ -16529,7 +16535,7 @@
         <v>311</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:3">
@@ -16540,7 +16546,7 @@
         <v>103</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:3">
@@ -16551,7 +16557,7 @@
         <v>103</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:3">
@@ -16562,7 +16568,7 @@
         <v>103</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:3">
@@ -16573,7 +16579,7 @@
         <v>103</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:3">
@@ -16584,7 +16590,7 @@
         <v>103</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:3">
@@ -16595,7 +16601,7 @@
         <v>103</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:3">
@@ -16606,7 +16612,7 @@
         <v>103</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:3">
@@ -16617,7 +16623,7 @@
         <v>103</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:3">
@@ -16628,7 +16634,7 @@
         <v>103</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:3">
@@ -16639,7 +16645,7 @@
         <v>103</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:3">
@@ -16650,7 +16656,7 @@
         <v>103</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:3">
@@ -16661,7 +16667,7 @@
         <v>103</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:3">
@@ -16672,7 +16678,7 @@
         <v>103</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:3">
@@ -16683,7 +16689,7 @@
         <v>103</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:3">
@@ -16694,7 +16700,7 @@
         <v>103</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:3">
@@ -16705,7 +16711,7 @@
         <v>103</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:3">
@@ -16716,7 +16722,7 @@
         <v>103</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:3">
@@ -16727,7 +16733,7 @@
         <v>103</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:3">
@@ -16738,7 +16744,7 @@
         <v>103</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:3">
@@ -16749,7 +16755,7 @@
         <v>103</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:3">
@@ -16760,7 +16766,7 @@
         <v>103</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:3">
@@ -16771,7 +16777,7 @@
         <v>103</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:3">
